--- a/metadados/silver_to_gold.xlsx
+++ b/metadados/silver_to_gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\trabalho-final-dataops\metadados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA2D6A-AFF9-4E8A-AC49-F3A74CA4BA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115E251-E59B-4F6D-B2DB-20C1DD5AD20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34350" yWindow="2505" windowWidth="21360" windowHeight="13470" xr2:uid="{3C659303-1BA8-4723-83B9-4625DFEAFD5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3C659303-1BA8-4723-83B9-4625DFEAFD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -80,27 +80,12 @@
     <t xml:space="preserve">titulo </t>
   </si>
   <si>
-    <t>episodio_id</t>
-  </si>
-  <si>
-    <t>diretor</t>
-  </si>
-  <si>
-    <t>produtor</t>
-  </si>
-  <si>
-    <t>data_release</t>
-  </si>
-  <si>
     <t>qtd_personagens</t>
   </si>
   <si>
     <t>qtd_especies</t>
   </si>
   <si>
-    <t>med_periodo_rotacao_planeta</t>
-  </si>
-  <si>
     <t>med_populacao_planetas</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>Produtor do Filme</t>
   </si>
   <si>
-    <t>Id do episodio</t>
-  </si>
-  <si>
     <t>Data de Lançamento do Filme</t>
   </si>
   <si>
@@ -165,6 +147,24 @@
   </si>
   <si>
     <t>films/planets</t>
+  </si>
+  <si>
+    <t>med_periodo_rotacao_planetas</t>
+  </si>
+  <si>
+    <t>num_episodio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número do episódio </t>
+  </si>
+  <si>
+    <t>nom_diretor</t>
+  </si>
+  <si>
+    <t>nom_produtor</t>
+  </si>
+  <si>
+    <t>data_lancamento</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -594,21 +594,21 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -620,21 +620,21 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -646,21 +646,21 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -672,24 +672,24 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -698,21 +698,21 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -724,21 +724,21 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -750,12 +750,12 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -764,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -776,12 +776,12 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -802,21 +802,21 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -828,21 +828,21 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -854,21 +854,21 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -880,21 +880,21 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -906,21 +906,21 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
